--- a/list.xlsx
+++ b/list.xlsx
@@ -47,7 +47,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -85,41 +85,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -127,15 +99,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -432,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A41"/>
+  <dimension ref="A1:A441"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A41"/>
+    <sheetView tabSelected="1" topLeftCell="A417" workbookViewId="0">
+      <selection sqref="A1:A441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -445,207 +408,2207 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.75">
       <c r="A1" s="1">
-        <v>6641</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="18.75">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="19.5" thickBot="1">
       <c r="A2" s="2">
-        <v>6642</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18.75">
-      <c r="A3" s="2">
-        <v>6643</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="18.75">
+      <c r="A3" s="1">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="19.5" thickBot="1">
       <c r="A4" s="2">
-        <v>6644</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18.75">
-      <c r="A5" s="2">
-        <v>6645</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="18.75">
+      <c r="A5" s="1">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="19.5" thickBot="1">
       <c r="A6" s="2">
-        <v>6646</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="18.75">
-      <c r="A7" s="2">
-        <v>6647</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="18.75">
+      <c r="A7" s="1">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="19.5" thickBot="1">
       <c r="A8" s="2">
-        <v>6648</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18.75">
-      <c r="A9" s="2">
-        <v>6649</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="18.75">
+      <c r="A9" s="1">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="19.5" thickBot="1">
       <c r="A10" s="2">
-        <v>6650</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="18.75">
-      <c r="A11" s="2">
-        <v>6651</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="18.75">
+      <c r="A11" s="1">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="19.5" thickBot="1">
       <c r="A12" s="2">
-        <v>6652</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="18.75">
-      <c r="A13" s="2">
-        <v>6653</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="18.75">
+      <c r="A13" s="1">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="19.5" thickBot="1">
       <c r="A14" s="2">
-        <v>6654</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="18.75">
-      <c r="A15" s="2">
-        <v>6655</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="18.75">
+      <c r="A15" s="1">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="19.5" thickBot="1">
       <c r="A16" s="2">
-        <v>6656</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="18.75">
-      <c r="A17" s="2">
-        <v>6657</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="18.75">
+      <c r="A17" s="1">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="19.5" thickBot="1">
       <c r="A18" s="2">
-        <v>6658</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="18.75">
-      <c r="A19" s="2">
-        <v>6659</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="18.75">
+      <c r="A19" s="1">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="19.5" thickBot="1">
       <c r="A20" s="2">
-        <v>6660</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="18.75">
-      <c r="A21" s="2">
-        <v>6661</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="18.75">
+      <c r="A21" s="1">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="19.5" thickBot="1">
       <c r="A22" s="2">
-        <v>6662</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="18.75">
-      <c r="A23" s="2">
-        <v>6663</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="18.75">
+      <c r="A23" s="1">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="19.5" thickBot="1">
       <c r="A24" s="2">
-        <v>6664</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="18.75">
-      <c r="A25" s="2">
-        <v>6665</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="18.75">
+      <c r="A25" s="1">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="19.5" thickBot="1">
       <c r="A26" s="2">
-        <v>6666</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="18.75">
-      <c r="A27" s="2">
-        <v>6667</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="18.75">
+      <c r="A27" s="1">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="19.5" thickBot="1">
       <c r="A28" s="2">
-        <v>6668</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="18.75">
-      <c r="A29" s="3">
-        <v>6669</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="18.75">
-      <c r="A30" s="3">
-        <v>6670</v>
+      <c r="A29" s="1">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A30" s="2">
+        <v>3243</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="18.75">
-      <c r="A31" s="3">
-        <v>6671</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="18.75">
+      <c r="A31" s="1">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="19.5" thickBot="1">
       <c r="A32" s="2">
-        <v>6672</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="18.75">
-      <c r="A33" s="2">
-        <v>6673</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="18.75">
+      <c r="A33" s="1">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="19.5" thickBot="1">
       <c r="A34" s="2">
-        <v>6674</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="18.75">
-      <c r="A35" s="2">
-        <v>6675</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="18.75">
+      <c r="A35" s="1">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="19.5" thickBot="1">
       <c r="A36" s="2">
-        <v>6676</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="18.75">
-      <c r="A37" s="2">
-        <v>6677</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="18.75">
+      <c r="A37" s="1">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="19.5" thickBot="1">
       <c r="A38" s="2">
-        <v>6678</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="18.75">
-      <c r="A39" s="4">
-        <v>6679</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="18.75">
+      <c r="A39" s="1">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="19.5" thickBot="1">
       <c r="A40" s="2">
-        <v>6680</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="19.5" thickBot="1">
-      <c r="A41" s="5">
-        <v>6681</v>
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="18.75">
+      <c r="A41" s="1">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A42" s="2">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="18.75">
+      <c r="A43" s="1">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A44" s="2">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="18.75">
+      <c r="A45" s="1">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A46" s="2">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="18.75">
+      <c r="A47" s="1">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A48" s="2">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="18.75">
+      <c r="A49" s="1">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A50" s="2">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="18.75">
+      <c r="A51" s="1">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A52" s="2">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="18.75">
+      <c r="A53" s="1">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A54" s="2">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="18.75">
+      <c r="A55" s="1">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A56" s="2">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="18.75">
+      <c r="A57" s="1">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A58" s="2">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="18.75">
+      <c r="A59" s="1">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A60" s="2">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="18.75">
+      <c r="A61" s="1">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A62" s="2">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="18.75">
+      <c r="A63" s="1">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A64" s="2">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="18.75">
+      <c r="A65" s="1">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A66" s="2">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="18.75">
+      <c r="A67" s="1">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A68" s="2">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="18.75">
+      <c r="A69" s="1">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A70" s="2">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="18.75">
+      <c r="A71" s="1">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A72" s="2">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="18.75">
+      <c r="A73" s="1">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A74" s="2">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="18.75">
+      <c r="A75" s="1">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A76" s="2">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="18.75">
+      <c r="A77" s="1">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A78" s="2">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="18.75">
+      <c r="A79" s="1">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A80" s="2">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="18.75">
+      <c r="A81" s="1">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A82" s="2">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="18.75">
+      <c r="A83" s="1">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A84" s="2">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="18.75">
+      <c r="A85" s="1">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A86" s="2">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="18.75">
+      <c r="A87" s="1">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A88" s="2">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="18.75">
+      <c r="A89" s="1">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A90" s="2">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="18.75">
+      <c r="A91" s="1">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A92" s="2">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="18.75">
+      <c r="A93" s="1">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A94" s="2">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="18.75">
+      <c r="A95" s="1">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A96" s="2">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="18.75">
+      <c r="A97" s="1">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A98" s="2">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="18.75">
+      <c r="A99" s="1">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A100" s="2">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="18.75">
+      <c r="A101" s="1">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A102" s="2">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="18.75">
+      <c r="A103" s="1">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A104" s="2">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="18.75">
+      <c r="A105" s="1">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A106" s="2">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="18.75">
+      <c r="A107" s="1">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A108" s="2">
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="18.75">
+      <c r="A109" s="1">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A110" s="2">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="18.75">
+      <c r="A111" s="1">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A112" s="2">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="18.75">
+      <c r="A113" s="1">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A114" s="2">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="18.75">
+      <c r="A115" s="1">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A116" s="2">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="18.75">
+      <c r="A117" s="1">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A118" s="2">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="18.75">
+      <c r="A119" s="1">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A120" s="2">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="18.75">
+      <c r="A121" s="1">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A122" s="2">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="18.75">
+      <c r="A123" s="1">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A124" s="2">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="18.75">
+      <c r="A125" s="1">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A126" s="2">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="18.75">
+      <c r="A127" s="1">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A128" s="2">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="18.75">
+      <c r="A129" s="1">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A130" s="2">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="18.75">
+      <c r="A131" s="1">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A132" s="2">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="18.75">
+      <c r="A133" s="1">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A134" s="2">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="18.75">
+      <c r="A135" s="1">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A136" s="2">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="18.75">
+      <c r="A137" s="1">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A138" s="2">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="18.75">
+      <c r="A139" s="1">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A140" s="2">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="18.75">
+      <c r="A141" s="1">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A142" s="2">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="18.75">
+      <c r="A143" s="1">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A144" s="2">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="18.75">
+      <c r="A145" s="1">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A146" s="2">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="18.75">
+      <c r="A147" s="1">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A148" s="2">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="18.75">
+      <c r="A149" s="1">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A150" s="2">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="18.75">
+      <c r="A151" s="1">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A152" s="2">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="18.75">
+      <c r="A153" s="1">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A154" s="2">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="18.75">
+      <c r="A155" s="1">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A156" s="2">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="18.75">
+      <c r="A157" s="1">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A158" s="2">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="18.75">
+      <c r="A159" s="1">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A160" s="2">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="18.75">
+      <c r="A161" s="1">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A162" s="2">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="18.75">
+      <c r="A163" s="1">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A164" s="2">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="18.75">
+      <c r="A165" s="1">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A166" s="2">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="18.75">
+      <c r="A167" s="1">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A168" s="2">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="18.75">
+      <c r="A169" s="1">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A170" s="2">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="18.75">
+      <c r="A171" s="1">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A172" s="2">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="18.75">
+      <c r="A173" s="1">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A174" s="2">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="18.75">
+      <c r="A175" s="1">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A176" s="2">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="18.75">
+      <c r="A177" s="1">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A178" s="2">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="18.75">
+      <c r="A179" s="1">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A180" s="2">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="18.75">
+      <c r="A181" s="1">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A182" s="2">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="18.75">
+      <c r="A183" s="1">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A184" s="2">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="18.75">
+      <c r="A185" s="1">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A186" s="2">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="18.75">
+      <c r="A187" s="1">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A188" s="2">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="18.75">
+      <c r="A189" s="1">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A190" s="2">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="18.75">
+      <c r="A191" s="1">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A192" s="2">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="18.75">
+      <c r="A193" s="1">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A194" s="2">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="18.75">
+      <c r="A195" s="1">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A196" s="2">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="18.75">
+      <c r="A197" s="1">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A198" s="2">
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="18.75">
+      <c r="A199" s="1">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A200" s="2">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="18.75">
+      <c r="A201" s="1">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A202" s="2">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="18.75">
+      <c r="A203" s="1">
+        <v>3416</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A204" s="2">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="18.75">
+      <c r="A205" s="1">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A206" s="2">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="18.75">
+      <c r="A207" s="1">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A208" s="2">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="18.75">
+      <c r="A209" s="1">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A210" s="2">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="18.75">
+      <c r="A211" s="1">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A212" s="2">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" ht="18.75">
+      <c r="A213" s="1">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A214" s="2">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="18.75">
+      <c r="A215" s="1">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A216" s="2">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" ht="18.75">
+      <c r="A217" s="1">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A218" s="2">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" ht="18.75">
+      <c r="A219" s="1">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A220" s="2">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" ht="18.75">
+      <c r="A221" s="1">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A222" s="2">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" ht="18.75">
+      <c r="A223" s="1">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A224" s="2">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="18.75">
+      <c r="A225" s="1">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A226" s="2">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" ht="18.75">
+      <c r="A227" s="1">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A228" s="2">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" ht="18.75">
+      <c r="A229" s="1">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A230" s="2">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" ht="18.75">
+      <c r="A231" s="1">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A232" s="2">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" ht="18.75">
+      <c r="A233" s="1">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A234" s="2">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" ht="18.75">
+      <c r="A235" s="1">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A236" s="2">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" ht="18.75">
+      <c r="A237" s="1">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A238" s="2">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" ht="18.75">
+      <c r="A239" s="1">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A240" s="2">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" ht="18.75">
+      <c r="A241" s="1">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A242" s="2">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" ht="18.75">
+      <c r="A243" s="1">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A244" s="2">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" ht="18.75">
+      <c r="A245" s="1">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A246" s="2">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" ht="18.75">
+      <c r="A247" s="1">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A248" s="2">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" ht="18.75">
+      <c r="A249" s="1">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A250" s="2">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" ht="18.75">
+      <c r="A251" s="1">
+        <v>3464</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A252" s="2">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" ht="18.75">
+      <c r="A253" s="1">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A254" s="2">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" ht="18.75">
+      <c r="A255" s="1">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A256" s="2">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" ht="18.75">
+      <c r="A257" s="1">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A258" s="2">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" ht="18.75">
+      <c r="A259" s="1">
+        <v>3472</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A260" s="2">
+        <v>3473</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" ht="18.75">
+      <c r="A261" s="1">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A262" s="2">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" ht="18.75">
+      <c r="A263" s="1">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A264" s="2">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" ht="18.75">
+      <c r="A265" s="1">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A266" s="2">
+        <v>3479</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" ht="18.75">
+      <c r="A267" s="1">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A268" s="2">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" ht="18.75">
+      <c r="A269" s="1">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A270" s="2">
+        <v>3483</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" ht="18.75">
+      <c r="A271" s="1">
+        <v>3484</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A272" s="2">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" ht="18.75">
+      <c r="A273" s="1">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A274" s="2">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" ht="18.75">
+      <c r="A275" s="1">
+        <v>3488</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A276" s="2">
+        <v>3489</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" ht="18.75">
+      <c r="A277" s="1">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A278" s="2">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" ht="18.75">
+      <c r="A279" s="1">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A280" s="2">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" ht="18.75">
+      <c r="A281" s="1">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A282" s="2">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" ht="18.75">
+      <c r="A283" s="1">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A284" s="2">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" ht="18.75">
+      <c r="A285" s="1">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A286" s="2">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" ht="18.75">
+      <c r="A287" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A288" s="2">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" ht="18.75">
+      <c r="A289" s="1">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A290" s="2">
+        <v>3503</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" ht="18.75">
+      <c r="A291" s="1">
+        <v>3504</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A292" s="2">
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" ht="18.75">
+      <c r="A293" s="1">
+        <v>3506</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A294" s="2">
+        <v>3507</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" ht="18.75">
+      <c r="A295" s="1">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A296" s="2">
+        <v>3509</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" ht="18.75">
+      <c r="A297" s="1">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A298" s="2">
+        <v>3511</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" ht="18.75">
+      <c r="A299" s="1">
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A300" s="2">
+        <v>3513</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" ht="18.75">
+      <c r="A301" s="1">
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A302" s="2">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" ht="18.75">
+      <c r="A303" s="1">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A304" s="2">
+        <v>3517</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" ht="18.75">
+      <c r="A305" s="1">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A306" s="2">
+        <v>3519</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" ht="18.75">
+      <c r="A307" s="1">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A308" s="2">
+        <v>3521</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" ht="18.75">
+      <c r="A309" s="1">
+        <v>3522</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A310" s="2">
+        <v>3523</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" ht="18.75">
+      <c r="A311" s="1">
+        <v>3524</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A312" s="2">
+        <v>3525</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" ht="18.75">
+      <c r="A313" s="1">
+        <v>3526</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A314" s="2">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" ht="18.75">
+      <c r="A315" s="1">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A316" s="2">
+        <v>3529</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" ht="18.75">
+      <c r="A317" s="1">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A318" s="2">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" ht="18.75">
+      <c r="A319" s="1">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A320" s="2">
+        <v>3533</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" ht="18.75">
+      <c r="A321" s="1">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A322" s="2">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" ht="18.75">
+      <c r="A323" s="1">
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A324" s="2">
+        <v>3537</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" ht="18.75">
+      <c r="A325" s="1">
+        <v>3538</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A326" s="2">
+        <v>3539</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" ht="18.75">
+      <c r="A327" s="1">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A328" s="2">
+        <v>3541</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" ht="18.75">
+      <c r="A329" s="1">
+        <v>3542</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A330" s="2">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" ht="18.75">
+      <c r="A331" s="1">
+        <v>3544</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A332" s="2">
+        <v>3545</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" ht="18.75">
+      <c r="A333" s="1">
+        <v>3546</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A334" s="2">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" ht="18.75">
+      <c r="A335" s="1">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A336" s="2">
+        <v>3549</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" ht="18.75">
+      <c r="A337" s="1">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A338" s="2">
+        <v>3551</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" ht="18.75">
+      <c r="A339" s="1">
+        <v>3552</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A340" s="2">
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" ht="18.75">
+      <c r="A341" s="1">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A342" s="2">
+        <v>3555</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" ht="18.75">
+      <c r="A343" s="1">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A344" s="2">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" ht="18.75">
+      <c r="A345" s="1">
+        <v>3558</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A346" s="2">
+        <v>3559</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" ht="18.75">
+      <c r="A347" s="1">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A348" s="2">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" ht="18.75">
+      <c r="A349" s="1">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A350" s="2">
+        <v>3563</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" ht="18.75">
+      <c r="A351" s="1">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A352" s="2">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" ht="18.75">
+      <c r="A353" s="1">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A354" s="2">
+        <v>3567</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" ht="18.75">
+      <c r="A355" s="1">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A356" s="2">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" ht="18.75">
+      <c r="A357" s="1">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A358" s="2">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" ht="18.75">
+      <c r="A359" s="1">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A360" s="2">
+        <v>3573</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" ht="18.75">
+      <c r="A361" s="1">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A362" s="2">
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" ht="18.75">
+      <c r="A363" s="1">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A364" s="2">
+        <v>3577</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" ht="18.75">
+      <c r="A365" s="1">
+        <v>3578</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A366" s="2">
+        <v>3579</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" ht="18.75">
+      <c r="A367" s="1">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A368" s="2">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" ht="18.75">
+      <c r="A369" s="1">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A370" s="2">
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" ht="18.75">
+      <c r="A371" s="1">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A372" s="2">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" ht="18.75">
+      <c r="A373" s="1">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A374" s="2">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" ht="18.75">
+      <c r="A375" s="1">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A376" s="2">
+        <v>3589</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" ht="18.75">
+      <c r="A377" s="1">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A378" s="2">
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" ht="18.75">
+      <c r="A379" s="1">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A380" s="2">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" ht="18.75">
+      <c r="A381" s="1">
+        <v>3594</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A382" s="2">
+        <v>3595</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" ht="18.75">
+      <c r="A383" s="1">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A384" s="2">
+        <v>3597</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" ht="18.75">
+      <c r="A385" s="1">
+        <v>3598</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A386" s="2">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" ht="18.75">
+      <c r="A387" s="1">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A388" s="2">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" ht="18.75">
+      <c r="A389" s="1">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A390" s="2">
+        <v>3603</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" ht="18.75">
+      <c r="A391" s="1">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A392" s="2">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" ht="18.75">
+      <c r="A393" s="1">
+        <v>3606</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A394" s="2">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" ht="18.75">
+      <c r="A395" s="1">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A396" s="2">
+        <v>3609</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" ht="18.75">
+      <c r="A397" s="1">
+        <v>3610</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A398" s="2">
+        <v>3611</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" ht="18.75">
+      <c r="A399" s="1">
+        <v>3612</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A400" s="2">
+        <v>3613</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" ht="18.75">
+      <c r="A401" s="1">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A402" s="2">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" ht="18.75">
+      <c r="A403" s="1">
+        <v>3616</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A404" s="2">
+        <v>3617</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" ht="18.75">
+      <c r="A405" s="1">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A406" s="2">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" ht="18.75">
+      <c r="A407" s="1">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A408" s="2">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" ht="18.75">
+      <c r="A409" s="1">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A410" s="2">
+        <v>3623</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" ht="18.75">
+      <c r="A411" s="1">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A412" s="2">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" ht="18.75">
+      <c r="A413" s="1">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A414" s="2">
+        <v>3627</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" ht="18.75">
+      <c r="A415" s="1">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A416" s="2">
+        <v>3629</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" ht="18.75">
+      <c r="A417" s="1">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A418" s="2">
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" ht="18.75">
+      <c r="A419" s="1">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A420" s="2">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" ht="18.75">
+      <c r="A421" s="1">
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A422" s="2">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" ht="18.75">
+      <c r="A423" s="1">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A424" s="2">
+        <v>3637</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" ht="18.75">
+      <c r="A425" s="1">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A426" s="2">
+        <v>3639</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" ht="18.75">
+      <c r="A427" s="1">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A428" s="2">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" ht="18.75">
+      <c r="A429" s="1">
+        <v>3642</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A430" s="2">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" ht="18.75">
+      <c r="A431" s="1">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A432" s="2">
+        <v>3645</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" ht="18.75">
+      <c r="A433" s="1">
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A434" s="2">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" ht="18.75">
+      <c r="A435" s="1">
+        <v>3648</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A436" s="2">
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" ht="18.75">
+      <c r="A437" s="1">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A438" s="2">
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" ht="18.75">
+      <c r="A439" s="1">
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" ht="19.5" thickBot="1">
+      <c r="A440" s="2">
+        <v>3653</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" ht="18.75">
+      <c r="A441" s="1">
+        <v>3654</v>
       </c>
     </row>
   </sheetData>
